--- a/sub_pro_3_hass_land_prices/my_app/data/all_data_avg_price_data.xlsx
+++ b/sub_pro_3_hass_land_prices/my_app/data/all_data_avg_price_data.xlsx
@@ -23,7 +23,7 @@
     <t>Quarter</t>
   </si>
   <si>
-    <t>Price</t>
+    <t>Average Price (KShs)</t>
   </si>
   <si>
     <t>1</t>
